--- a/참조/CSS 선택자참조.xlsx
+++ b/참조/CSS 선택자참조.xlsx
@@ -23,328 +23,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="270">
   <x:si>
-    <x:t xml:space="preserve">Type selector            </x:t>
-  </x:si>
-  <x:si>
-    <x:t>The :lang() pseudo-class</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Structural pseudo-classes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The ::after pseudo-element</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 p 요소와 클래스가 "ccc"인 모든 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>활성화 또는 비활성화된 사용자 인터페이스 요소 E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>형제 중에서 유일한 p 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ul 요소의 자손 li 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>()가 아닌 p 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>input:checked</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마우스가 올라간 상태인 a 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인접 형제 선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E::after</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:checked</x:t>
+    <x:t xml:space="preserve">an E element whose "foo" attribute value is exactly equal to "bar"                                                       </x:t>
   </x:si>
   <x:si>
     <x:t>an E element whose "foo" attribute value is a list of whitespace-separated values, one of which is exactly equal to "bar"</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">an E element whose "foo" attribute value is exactly equal to "bar"                                                       </x:t>
-  </x:si>
-  <x:si>
-    <x:t>"foo" 속성이 "en"으로 시작하는(왼쪽부터) 하이픈으로 구분된 값 목록을 갖는 E 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element being the target of the referring URI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element that does not match simple selector s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an F element immediately preceded by an E element</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"class" 속성 값이 공백으로 구분되고 그 중 하나가 "bar"와 동일함 div 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">an E element being the source anchor of a hyperlink of which the target is not yet visited (:link) or already visited (:visited)	</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자식이 없는 p 요소(텍스트 노드 포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태그 선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체 선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자식 선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>h1 + p</x:t>
-  </x:si>
-  <x:si>
-    <x:t>속성선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CSS버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:hover</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하위 선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E#myid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:focus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하위 조합기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pattern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E ~ F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID 선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:link</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E + F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p.ccc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E &gt; F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:empty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p#ccc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 and 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자식 결합자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#ccc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클래스 선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ul li</x:t>
-  </x:si>
-  <x:si>
-    <x:t>형제 선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E[foo]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>.ccc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계층선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>범용 선택기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그룹 선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ul &gt; li</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 p 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>h1 ~ p</x:t>
-  </x:si>
-  <x:si>
-    <x:t>속성 선택기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p, .ccc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유형 선택기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:root</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가상요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p:empty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소, 해당 유형의 첫 번째 형제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소의 첫 번째 서식이 지정된 줄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The target pseudo-class</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p 요소의 형제 중 뒤에서 n번째 p요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an element of type E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Descendant combinator</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Negation pseudo-class</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 요소는 의사 클래스를 나타냅니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단순 선택자와 일치하지 않는 E 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자식이 없는 E 요소(텍스트 노드 포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참조하는 URI의 대상이 되는 E 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The link pseudo-classes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p:nth-last-of-type(n)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"class" 속성이 있는 div 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:nth-last-of-type(n)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Next-sibling combinator</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모양</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a:link</x:t>
+    <x:t>an E element, root of the document</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"foo" 속성 값이 문자열 "bar"로 정확히 끝나는 E 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">The ::before pseudo-element       </x:t>
+  </x:si>
+  <x:si>
+    <x:t>an F element child of an E element</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소, 해당 유형의 n번째 형제, 마지막 요소부터 계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"class" 속성 값이 문자열 "bar"로 끝나는 div 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a user interface element E which is checked (for instance a radio-button or checkbox)</x:t>
   </x:si>
   <x:si>
     <x:t>클릭한 상태인 a 요소</x:t>
   </x:si>
   <x:si>
-    <x:t>input:enabled</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 번째 자식인 p요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언어 "ko"의 유형 p 요소(문서 언어는 언어가 결정되는 방법을 지정함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element whose "foo" attribute has a hyphen-separated list of values beginning (from the left) with "en"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element that has no children (including text nodes)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element whose "foo" attribute value ends exactly with the string "bar"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미 방문한  a 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p::splpction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p:last-of-type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p::first-linp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p 요소의 첫 번째 문자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p:first-of-type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p 요소 뒤에 생성된 콘텐츠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p:first-child</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"class" 속성이 "bar"으로 시작하고 하이픈(-)으로 구분된 div 요소</x:t>
+    <x:t>사용자 작업 의사 클래스</x:t>
   </x:si>
   <x:si>
     <x:t>가상
@@ -352,339 +61,534 @@
 (이벤트)</x:t>
   </x:si>
   <x:si>
+    <x:t>E[foo="bar"]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p::splpction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:first-child</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p:last-child</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:last-of-type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소 뒤에 생성된 콘텐츠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:last-child</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p:first-child</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p 요소 드래그한 콘텐츠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p 요소의 첫 번째 줄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미 방문한  a 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p 요소의 첫 번째 문자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p 요소 뒤에 생성된 콘텐츠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>input:enabled</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p:first-of-type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p::first-lpttpr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E::first-letter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p 요소 앞에 생성된 콘텐츠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID가 "ccc"인 p요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E[foo~="bar"]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID selectors</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 번째 자식인 p요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E[foo*="bar"]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p:last-of-type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p::first-linp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p:nth-child(n)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:only-child</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E::first-line</x:t>
+  </x:si>
+  <x:si>
+    <x:t>::첫 글자 의사 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소의 F 요소 자식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소 앞에 생성된 콘텐츠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E[foo^="bar"]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E[foo|="en"]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>:lang() 의사 클래스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:first-of-type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소의 F 요소 자손</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Class selectors</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E[foo$="bar"]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서의 루트인 E 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>::after 의사 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p:only-child</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체크 상태인 input 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:only-of-type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>input:disabled</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:nth-child(n)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ul 요소의 자식 li 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>형제 중에서 유일한 p 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ul 요소의 자손 li 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>input:checked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소의 첫 번째 서식이 지정된 줄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자식이 없는 E 요소(텍스트 노드 포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p 요소의 형제 중 뒤에서 n번째 p요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Descendant combinator</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Negation pseudo-class</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소, 해당 유형의 첫 번째 형제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자식이 없는 p 요소(텍스트 노드 포함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI 요소는 의사 클래스를 나타냅니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단순 선택자와 일치하지 않는 E 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The target pseudo-class</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참조하는 URI의 대상이 되는 E 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an element of type E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:nth-last-of-type(n)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"class" 속성이 있는 div 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p:nth-last-of-type(n)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Next-sibling combinator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The link pseudo-classes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포커스가 들어와 있는 상태인 a 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Child combinator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마우스가 올라간 상태인 a 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>div[class="bar"]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소, 해당 유형의 n번째 형제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부모의 n번째 자식인 E 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>div[class$="bar"]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소, 부모의 유일한 자식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>div[class^="bar"]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p 요소의 형제 마지막 p요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p 요소의 형제 중 n번째 p요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아직 방문하지 않은  a 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소, 해당 유형의 마지막 형제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:nth-last-child(n)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID가 "ccc"인 모든 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>div[class~="bar"]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p:nth-of-type(n)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"foo" 속성이 있는 E 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 사용자 작업 중 E 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID가 "myid"인 E 요소.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클래스가 "ccc"인 p 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소의 첫 번째 형식화된 문자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p:nth-last-child(n)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:nth-of-type(n)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Universal selector</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클래스가 "ccc"인 모든 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attribute selectors</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p 요소의 형제 중 첫 번째 p요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소, 해당 유형의 유일한 형제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소가 바로 앞에 오는 F 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소, 부모의 첫 번째 자식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>div[class*="bar"]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소, 부모의 마지막 자식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 요소가 앞에 오는 F 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>div[class|="bar"]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>활성화 상태인 input 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뒤부터 n번째 자식인 p 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앞부터 n번째 자식인 p 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비활성화 상태인 input 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the first formatted line of an E element</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element during certain user actions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟이 아직 방문하지 않았거나(:link) 하이퍼링크의 소스 앵커인 E 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언어 "ko"의 유형 p 요소(문서 언어는 언어가 결정되는 방법을 지정함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the first formatted letter of an E element</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클래스가 "경고"인 E 요소(문서 언어는 클래스가 결정되는 방식을 지정함).</x:t>
+  </x:si>
+  <x:si>
+    <x:t>언어 "fr"의 유형 E 요소(문서 언어는 언어가 결정되는 방법을 지정함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element, the n-th sibling of its type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element, the n-th child of its parent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element whose "foo" attribute has a hyphen-separated list of values beginning (from the left) with "en"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element whose class is "warning" (the document language specifies how class is determined).</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an element of type E in language "fr" (the document language specifies how language is determined)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:checked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인접 형제 선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E::after</x:t>
+  </x:si>
+  <x:si>
+    <x:t>()가 아닌 p 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모양</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p:lang(ko)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element whose "foo" attribute value begins exactly with the string "bar"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element that has no children (including text nodes)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">an E element being the source anchor of a hyperlink of which the target is not yet visited (:link) or already visited (:visited)	</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"foo" 속성이 "en"으로 시작하는(왼쪽부터) 하이픈으로 구분된 값 목록을 갖는 E 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element being the target of the referring URI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an F element immediately preceded by an E element</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"class" 속성 값이 공백으로 구분되고 그 중 하나가 "bar"와 동일함 div 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element that does not match simple selector s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element with a "foo" attribute</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"foo" 속성 값이 "bar" 부분 문자열을 포함하는 E 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Type selector            </x:t>
+  </x:si>
+  <x:si>
+    <x:t>h1 요소 형제 중 뒤에 있는 모든 p 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The :lang() pseudo-class</x:t>
+  </x:si>
+  <x:si>
+    <x:t>h1 요소 형제 중 바로 뒤에 있는 p 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 p 요소와 클래스가 "ccc"인 모든 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Structural pseudo-classes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The ::after pseudo-element</x:t>
+  </x:si>
+  <x:si>
+    <x:t>활성화 또는 비활성화된 사용자 인터페이스 요소 E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element whose "foo" attribute value ends exactly with the string "bar"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"class" 속성이 "bar"으로 시작하고 하이픈(-)으로 구분된 div 요소</x:t>
+  </x:si>
+  <x:si>
     <x:t>a user interface element E which is enabled or disabled</x:t>
   </x:si>
   <x:si>
     <x:t>"foo" 속성 값이 공백으로 구분된 값 목록인 E 요소(그 중 하나는 "bar"와 정확히 동일함)</x:t>
   </x:si>
   <x:si>
-    <x:t>p:lang(ko)</x:t>
-  </x:si>
-  <x:si>
     <x:t>an E element whose "foo" attribute value contains the substring "bar"</x:t>
   </x:si>
   <x:si>
+    <x:t>an E element, the n-th child of its parent, counting from the last one</x:t>
+  </x:si>
+  <x:si>
     <x:t>an E element, the n-th sibling of its type, counting from the last one</x:t>
   </x:si>
   <x:si>
-    <x:t>an E element, the n-th child of its parent, counting from the last one</x:t>
-  </x:si>
-  <x:si>
-    <x:t>div[class="bar"]</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Child combinator</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p 요소의 형제 중 첫 번째 p요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소, 해당 유형의 마지막 형제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 사용자 작업 중 E 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클래스가 "ccc"인 p 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p 요소의 형제 마지막 p요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:nth-last-child(n)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Universal selector</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID가 "ccc"인 모든 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소, 부모의 유일한 자식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소가 바로 앞에 오는 F 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소가 앞에 오는 F 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소의 첫 번째 형식화된 문자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소, 해당 유형의 n번째 형제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element with a "foo" attribute</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"foo" 속성 값이 "bar" 부분 문자열을 포함하는 E 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"class" 속성 값이 문자열 "bar"로 끝나는 div 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소, 해당 유형의 n번째 형제, 마지막 요소부터 계산</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"foo" 속성 값이 문자열 "bar"로 정확히 끝나는 E 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an F element child of an E element</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element, root of the document</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">The ::before pseudo-element       </x:t>
-  </x:si>
-  <x:si>
-    <x:t>p 요소 드래그한 콘텐츠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p 요소 앞에 생성된 콘텐츠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p:last-child</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p:nth-child(n)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p::first-lpttpr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p 요소의 첫 번째 줄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p 요소의 형제 중 n번째 p요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>div[class|="bar"]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p:nth-last-child(n)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p:nth-of-type(n)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a user interface element E which is checked (for instance a radio-button or checkbox)</x:t>
+    <x:t>The UI element states pseudo-classes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"class" 속성 값이 문자열 "bar"로 시작하는 div 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an F element preceded by an E element</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"foo" 속성 값이 "bar" 문자열로 정확히 시작하는 E 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element, only child of its parent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element, first child of its parent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element with ID equal to "myid".</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an F element descendant of an E element</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">The ::first-letter pseudo-element    </x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟이 이미 방문한(:visited) 하이퍼링크의 소스 앵커인 E 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element, last sibling of its type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an E element, first sibling of its type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"class" 속성 값이 문자열 "bar"을 포함하는 div 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>generated content before an E element</x:t>
   </x:si>
   <x:si>
     <x:t>체크된 사용자 인터페이스 요소 E(예: 라디오 버튼 또는 체크박스)</x:t>
   </x:si>
   <x:si>
-    <x:t>"class" 속성 값이 문자열 "bar"을 포함하는 div 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element, only child of its parent</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">The ::first-letter pseudo-element    </x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element, first child of its parent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"class" 속성 값이 문자열 "bar"로 시작하는 div 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟이 이미 방문한(:visited) 하이퍼링크의 소스 앵커인 E 요소</x:t>
+    <x:t>an E element, only sibling of its type</x:t>
   </x:si>
   <x:si>
     <x:t>generated content after an E element</x:t>
   </x:si>
   <x:si>
-    <x:t>an E element, first sibling of its type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The UI element states pseudo-classes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element, last sibling of its type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an F element preceded by an E element</x:t>
-  </x:si>
-  <x:si>
-    <x:t>generated content before an E element</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"foo" 속성 값이 "bar" 문자열로 정확히 시작하는 E 요소</x:t>
-  </x:si>
-  <x:si>
     <x:t>an E element, last child of its parent</x:t>
   </x:si>
   <x:si>
-    <x:t>an E element with ID equal to "myid".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element, only sibling of its type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an F element descendant of an E element</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the first formatted letter of an E element</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element during certain user actions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element, the n-th child of its parent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클래스가 "경고"인 E 요소(문서 언어는 클래스가 결정되는 방식을 지정함).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the first formatted line of an E element</x:t>
-  </x:si>
-  <x:si>
-    <x:t>언어 "fr"의 유형 E 요소(문서 언어는 언어가 결정되는 방법을 지정함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element, the n-th sibling of its type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟이 아직 방문하지 않았거나(:link) 하이퍼링크의 소스 앵커인 E 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E::first-letter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID가 "ccc"인 p요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:first-child</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E[foo~="bar"]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:last-of-type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E[foo="bar"]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E::first-line</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID selectors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E[foo*="bar"]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 작업 의사 클래스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:only-child</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소 뒤에 생성된 콘텐츠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>::첫 글자 의사 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:last-child</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E[foo$="bar"]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:first-of-type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소의 F 요소 자손</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E[foo^="bar"]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E[foo|="en"]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Class selectors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서의 루트인 E 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>::after 의사 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소 앞에 생성된 콘텐츠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소의 F 요소 자식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>:lang() 의사 클래스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:only-of-type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:nth-child(n)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element whose "foo" attribute value begins exactly with the string "bar"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소, 부모의 마지막 자식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID가 "myid"인 E 요소.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부모의 n번째 자식인 E 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:nth-of-type(n)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클래스가 "ccc"인 모든 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>div[class$="bar"]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>div[class~="bar"]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소, 부모의 첫 번째 자식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"foo" 속성이 있는 E 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Attribute selectors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>div[class*="bar"]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>div[class^="bar"]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 요소, 해당 유형의 유일한 형제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an E element whose class is "warning" (the document language specifies how class is determined).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>an element of type E in language "fr" (the document language specifies how language is determined)</x:t>
-  </x:si>
-  <x:si>
     <x:t>Subsequent-sibling combinator</x:t>
   </x:si>
   <x:si>
     <x:t>E 요소, 부모의 n번째 자식, 마지막 요소부터 계산</x:t>
   </x:si>
   <x:si>
+    <x:t>"class" 속성 값이 "bar"와 동일한 div 요소</x:t>
+  </x:si>
+  <x:si>
     <x:t>"foo" 속성 값이 "bar"와 정확히 동일한 E 요소</x:t>
   </x:si>
   <x:si>
@@ -694,85 +598,208 @@
     <x:t>The ::first-line pseudo-element</x:t>
   </x:si>
   <x:si>
-    <x:t>"class" 속성 값이 "bar"와 동일한 div 요소</x:t>
+    <x:t>E ~ F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태그 선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체 선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자식 선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>속성선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSS버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하위 선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:focus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하위 조합기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E#myid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>h1 + p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:link</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:hover</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pattern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID 선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E + F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p.ccc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E &gt; F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:empty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p#ccc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 and 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자식 결합자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>#ccc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가상요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>속성 선택기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그룹 선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p:empty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a:hover</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a:focus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계층선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>h1 ~ p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>형제 선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유형 선택기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E[foo]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ul &gt; li</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:root</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클래스 선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>범용 선택기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 p 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a:link</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p:not()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.ccc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ul li</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p, .ccc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 요소</x:t>
   </x:si>
   <x:si>
     <x:t>div[class]</x:t>
   </x:si>
   <x:si>
+    <x:t>E:active</x:t>
+  </x:si>
+  <x:si>
     <x:t>다음 형제 결합자</x:t>
   </x:si>
   <x:si>
+    <x:t>E:visited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:disabled</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Represents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>::의사 요소 이전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E::before</x:t>
+  </x:si>
+  <x:si>
+    <x:t>링크 의사 클래스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:target</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부정 의사 클래스</x:t>
+  </x:si>
+  <x:si>
     <x:t>구조적 의사 클래스</x:t>
   </x:si>
   <x:si>
-    <x:t>Represents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:visited</x:t>
+    <x:t>::첫 줄 의사 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:enabled</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:lang(fr)</x:t>
   </x:si>
   <x:si>
     <x:t>후속 형제 결합자</x:t>
   </x:si>
   <x:si>
-    <x:t>E:target</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:active</x:t>
-  </x:si>
-  <x:si>
-    <x:t>::첫 줄 의사 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:enabled</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:disabled</x:t>
-  </x:si>
-  <x:si>
-    <x:t>::의사 요소 이전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:lang(fr)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E::before</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부정 의사 클래스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>링크 의사 클래스</x:t>
+    <x:t>p::aftpr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>any element</x:t>
   </x:si>
   <x:si>
     <x:t>대상 의사 클래스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E.warning</x:t>
-  </x:si>
-  <x:si>
-    <x:t>any element</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E 유형의 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E:not(s)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태그 아이디 선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p::aftpr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태그 클래스 선택자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p::bpforp</x:t>
   </x:si>
   <x:si>
     <x:t>가상
@@ -780,68 +807,41 @@
 (구조)</x:t>
   </x:si>
   <x:si>
-    <x:t>아직 방문하지 않은  a 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p:only-child</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ul 요소의 자식 li 요소</x:t>
-  </x:si>
-  <x:si>
     <x:t>a:visited</x:t>
   </x:si>
   <x:si>
     <x:t>a:active</x:t>
   </x:si>
   <x:si>
-    <x:t>p:not()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부모의 유일한 자식 p 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>input:disabled</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비활성화 상태인 input 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>h1 요소 형제 중 뒤에 있는 모든 p 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>활성화 상태인 input 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a:hover</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포커스가 들어와 있는 상태인 a 요소</x:t>
+    <x:t>태그 아이디 선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E.warning</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p::bpforp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태그 클래스 선택자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E 유형의 요소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E:not(s)</x:t>
   </x:si>
   <x:si>
     <x:t>마지막 자식인 p요소</x:t>
   </x:si>
   <x:si>
-    <x:t>a:focus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체크 상태인 input 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앞부터 n번째 자식인 p 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뒤부터 n번째 자식인 p 요소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>h1 요소 형제 중 바로 뒤에 있는 p 요소</x:t>
+    <x:t>부모의 유일한 자식인 p 요소</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="7">
+  <x:fonts count="8">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -871,6 +871,12 @@
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ffff0000"/>
+      <x:b val="1"/>
     </x:font>
     <x:font>
       <x:name val="맑은 고딕"/>
@@ -1028,7 +1034,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="33">
+  <x:cellXfs count="36">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1245,6 +1251,45 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1362,6 +1407,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1388,52 +1446,39 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2160,8 +2205,8 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:F51"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D35" activeCellId="0" sqref="D35:D35"/>
+    <x:sheetView tabSelected="1" topLeftCell="B22" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D28" activeCellId="0" sqref="D28:D28"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2177,649 +2222,649 @@
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="3"/>
       <x:c r="B1" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>89</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>87</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
-      <x:c r="A2" s="21" t="s">
-        <x:v>61</x:v>
+      <x:c r="A2" s="24" t="s">
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B2" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C2" s="4" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D2" s="31" t="s">
-        <x:v>62</x:v>
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D2" s="19" t="s">
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E2" s="4">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
-      <x:c r="A3" s="22"/>
+      <x:c r="A3" s="25"/>
       <x:c r="B3" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D3" s="31" t="s">
-        <x:v>57</x:v>
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D3" s="19" t="s">
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E3" s="4">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
-      <x:c r="A4" s="22"/>
+      <x:c r="A4" s="25"/>
       <x:c r="B4" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D4" s="31" t="s">
-        <x:v>207</x:v>
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="D4" s="19" t="s">
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E4" s="4">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="A5" s="22"/>
+      <x:c r="A5" s="25"/>
       <x:c r="B5" s="16" t="s">
-        <x:v>24</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D5" s="31" t="s">
-        <x:v>124</x:v>
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="D5" s="19" t="s">
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E5" s="4">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="A6" s="22"/>
+      <x:c r="A6" s="25"/>
       <x:c r="B6" s="16" t="s">
-        <x:v>248</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D6" s="31" t="s">
-        <x:v>120</x:v>
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="D6" s="19" t="s">
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E6" s="4">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
-      <x:c r="A7" s="22"/>
+      <x:c r="A7" s="25"/>
       <x:c r="B7" s="16" t="s">
-        <x:v>246</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D7" s="31" t="s">
-        <x:v>176</x:v>
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D7" s="19" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E7" s="4">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
-      <x:c r="A8" s="23"/>
+      <x:c r="A8" s="26"/>
       <x:c r="B8" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D8" s="31" t="s">
-        <x:v>4</x:v>
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="D8" s="19" t="s">
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E8" s="4">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
-      <x:c r="A9" s="18" t="s">
-        <x:v>53</x:v>
+      <x:c r="A9" s="21" t="s">
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C9" s="6" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D9" s="32" t="s">
-        <x:v>7</x:v>
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="D9" s="20" t="s">
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E9" s="6">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
-      <x:c r="A10" s="18"/>
+      <x:c r="A10" s="21"/>
       <x:c r="B10" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D10" s="32" t="s">
-        <x:v>253</x:v>
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="D10" s="20" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E10" s="6">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
-      <x:c r="A11" s="18"/>
+      <x:c r="A11" s="21"/>
       <x:c r="B11" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C11" s="6" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D11" s="32" t="s">
-        <x:v>260</x:v>
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="D11" s="20" t="s">
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E11" s="6">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
-      <x:c r="A12" s="18"/>
+      <x:c r="A12" s="21"/>
       <x:c r="B12" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D12" s="32" t="s">
-        <x:v>269</x:v>
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="D12" s="20" t="s">
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E12" s="6">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
-      <x:c r="A13" s="19" t="s">
-        <x:v>28</x:v>
+      <x:c r="A13" s="22" t="s">
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B13" s="7"/>
       <x:c r="C13" s="8" t="s">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="D13" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="D13" s="33" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E13" s="8">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
-      <x:c r="A14" s="19"/>
+      <x:c r="A14" s="22"/>
       <x:c r="B14" s="7"/>
       <x:c r="C14" s="8" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="D14" s="8" t="s">
-        <x:v>223</x:v>
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D14" s="33" t="s">
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E14" s="8">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
-      <x:c r="A15" s="19"/>
+      <x:c r="A15" s="22"/>
       <x:c r="B15" s="7"/>
       <x:c r="C15" s="8" t="s">
-        <x:v>209</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D15" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E15" s="8">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
-      <x:c r="A16" s="19"/>
+      <x:c r="A16" s="22"/>
       <x:c r="B16" s="7"/>
       <x:c r="C16" s="8" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="D16" s="8" t="s">
-        <x:v>154</x:v>
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D16" s="33" t="s">
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E16" s="8">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
-      <x:c r="A17" s="19"/>
+      <x:c r="A17" s="22"/>
       <x:c r="B17" s="7"/>
       <x:c r="C17" s="8" t="s">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="D17" s="8" t="s">
-        <x:v>132</x:v>
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D17" s="33" t="s">
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E17" s="8">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
-      <x:c r="A18" s="19"/>
+      <x:c r="A18" s="22"/>
       <x:c r="B18" s="7"/>
       <x:c r="C18" s="8" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="D18" s="8" t="s">
-        <x:v>150</x:v>
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D18" s="33" t="s">
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E18" s="8">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
-      <x:c r="A19" s="19"/>
+      <x:c r="A19" s="22"/>
       <x:c r="B19" s="7"/>
       <x:c r="C19" s="8" t="s">
-        <x:v>145</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>107</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E19" s="8">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
-      <x:c r="A20" s="20" t="s">
-        <x:v>65</x:v>
+      <x:c r="A20" s="23" t="s">
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B20" s="14"/>
       <x:c r="C20" s="15" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D20" s="15" t="s">
-        <x:v>143</x:v>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D20" s="35" t="s">
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E20" s="15">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
-      <x:c r="A21" s="20"/>
+      <x:c r="A21" s="23"/>
       <x:c r="B21" s="14"/>
       <x:c r="C21" s="15" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="D21" s="15" t="s">
-        <x:v>103</x:v>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D21" s="35" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E21" s="15">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
-      <x:c r="A22" s="20"/>
+      <x:c r="A22" s="23"/>
       <x:c r="B22" s="14"/>
       <x:c r="C22" s="15" t="s">
-        <x:v>249</x:v>
-      </x:c>
-      <x:c r="D22" s="15" t="s">
-        <x:v>139</x:v>
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="D22" s="35" t="s">
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E22" s="15">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
-      <x:c r="A23" s="20"/>
+      <x:c r="A23" s="23"/>
       <x:c r="B23" s="14"/>
       <x:c r="C23" s="15" t="s">
-        <x:v>247</x:v>
-      </x:c>
-      <x:c r="D23" s="15" t="s">
-        <x:v>105</x:v>
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="D23" s="35" t="s">
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E23" s="15">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
-      <x:c r="A24" s="20"/>
+      <x:c r="A24" s="23"/>
       <x:c r="B24" s="14"/>
       <x:c r="C24" s="15" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D24" s="15" t="s">
-        <x:v>138</x:v>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D24" s="35" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E24" s="15">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
-      <x:c r="A25" s="24" t="s">
-        <x:v>250</x:v>
+      <x:c r="A25" s="27" t="s">
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B25" s="13"/>
       <x:c r="C25" s="12" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D25" s="30" t="s">
-        <x:v>94</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D25" s="18" t="s">
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E25" s="12">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
-      <x:c r="A26" s="25"/>
+      <x:c r="A26" s="28"/>
       <x:c r="B26" s="13"/>
       <x:c r="C26" s="12" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="D26" s="30" t="s">
-        <x:v>264</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D26" s="18" t="s">
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E26" s="12">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
-      <x:c r="A27" s="25"/>
+      <x:c r="A27" s="28"/>
       <x:c r="B27" s="13"/>
       <x:c r="C27" s="12" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D27" s="12" t="s">
-        <x:v>117</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D27" s="34" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E27" s="12">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
-      <x:c r="A28" s="25"/>
+      <x:c r="A28" s="28"/>
       <x:c r="B28" s="13"/>
       <x:c r="C28" s="12" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D28" s="12" t="s">
-        <x:v>121</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D28" s="34" t="s">
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E28" s="12">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
-      <x:c r="A29" s="25"/>
+      <x:c r="A29" s="28"/>
       <x:c r="B29" s="13"/>
       <x:c r="C29" s="12" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="D29" s="30" t="s">
-        <x:v>267</x:v>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D29" s="18" t="s">
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E29" s="12">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
-      <x:c r="A30" s="25"/>
+      <x:c r="A30" s="28"/>
       <x:c r="B30" s="13"/>
       <x:c r="C30" s="12" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="D30" s="30" t="s">
-        <x:v>268</x:v>
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D30" s="18" t="s">
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E30" s="12">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
-      <x:c r="A31" s="25"/>
+      <x:c r="A31" s="28"/>
       <x:c r="B31" s="13"/>
       <x:c r="C31" s="12" t="s">
-        <x:v>147</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D31" s="12" t="s">
-        <x:v>144</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E31" s="12">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
-      <x:c r="A32" s="25"/>
+      <x:c r="A32" s="28"/>
       <x:c r="B32" s="13"/>
       <x:c r="C32" s="12" t="s">
-        <x:v>79</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D32" s="12" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E32" s="12">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
-      <x:c r="A33" s="25"/>
+      <x:c r="A33" s="28"/>
       <x:c r="B33" s="13"/>
       <x:c r="C33" s="12" t="s">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="D33" s="12" t="s">
-        <x:v>257</x:v>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D33" s="34" t="s">
+        <x:v>269</x:v>
       </x:c>
       <x:c r="E33" s="12">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
-      <x:c r="A34" s="25"/>
+      <x:c r="A34" s="28"/>
       <x:c r="B34" s="13"/>
       <x:c r="C34" s="12" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="D34" s="12" t="s">
-        <x:v>6</x:v>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D34" s="34" t="s">
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E34" s="12">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
-      <x:c r="A35" s="25"/>
+      <x:c r="A35" s="28"/>
       <x:c r="B35" s="11"/>
       <x:c r="C35" s="12" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="D35" s="30" t="s">
-        <x:v>8</x:v>
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="D35" s="18" t="s">
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E35" s="12">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
-      <x:c r="A36" s="25"/>
+      <x:c r="A36" s="28"/>
       <x:c r="B36" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C36" s="12" t="s">
-        <x:v>64</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D36" s="12" t="s">
-        <x:v>195</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E36" s="12">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
-      <x:c r="A37" s="26"/>
+      <x:c r="A37" s="29"/>
       <x:c r="B37" s="13"/>
       <x:c r="C37" s="12" t="s">
-        <x:v>66</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D37" s="12" t="s">
-        <x:v>22</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E37" s="12">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
-      <x:c r="A38" s="29" t="s">
-        <x:v>108</x:v>
+      <x:c r="A38" s="30" t="s">
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B38" s="9"/>
       <x:c r="C38" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D38" s="10" t="s">
-        <x:v>251</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E38" s="10">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
-      <x:c r="A39" s="27"/>
+      <x:c r="A39" s="31"/>
       <x:c r="B39" s="9"/>
       <x:c r="C39" s="10" t="s">
-        <x:v>254</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D39" s="10" t="s">
-        <x:v>99</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E39" s="10">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
-      <x:c r="A40" s="27"/>
+      <x:c r="A40" s="31"/>
       <x:c r="B40" s="9"/>
       <x:c r="C40" s="10" t="s">
-        <x:v>255</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D40" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E40" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
-      <x:c r="A41" s="27"/>
+      <x:c r="A41" s="31"/>
       <x:c r="B41" s="9"/>
       <x:c r="C41" s="10" t="s">
-        <x:v>262</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D41" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E41" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
-      <x:c r="A42" s="27"/>
+      <x:c r="A42" s="31"/>
       <x:c r="B42" s="9"/>
       <x:c r="C42" s="10" t="s">
-        <x:v>265</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D42" s="10" t="s">
-        <x:v>263</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E42" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
-      <x:c r="A43" s="27"/>
+      <x:c r="A43" s="31"/>
       <x:c r="B43" s="9" t="s">
-        <x:v>85</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C43" s="10" t="s">
-        <x:v>231</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D43" s="10" t="s">
-        <x:v>77</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E43" s="10">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
-      <x:c r="A44" s="27"/>
+      <x:c r="A44" s="31"/>
       <x:c r="B44" s="9"/>
       <x:c r="C44" s="10" t="s">
-        <x:v>111</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D44" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E44" s="10">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
-      <x:c r="A45" s="27"/>
+      <x:c r="A45" s="31"/>
       <x:c r="B45" s="9"/>
       <x:c r="C45" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D45" s="10" t="s">
-        <x:v>261</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E45" s="10">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5">
-      <x:c r="A46" s="27"/>
+      <x:c r="A46" s="31"/>
       <x:c r="B46" s="9"/>
       <x:c r="C46" s="10" t="s">
-        <x:v>258</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D46" s="10" t="s">
-        <x:v>259</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E46" s="10">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:5">
-      <x:c r="A47" s="28"/>
+      <x:c r="A47" s="32"/>
       <x:c r="B47" s="9"/>
       <x:c r="C47" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D47" s="10" t="s">
-        <x:v>266</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E47" s="10">
         <x:v>3</x:v>
@@ -2843,7 +2888,7 @@
     <x:mergeCell ref="A25:A37"/>
     <x:mergeCell ref="A38:A47"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2867,27 +2912,27 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D1" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D2" s="2">
         <x:v>2</x:v>
@@ -2895,13 +2940,13 @@
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>244</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D3" s="2">
         <x:v>1</x:v>
@@ -2909,13 +2954,13 @@
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D4" s="2">
         <x:v>2</x:v>
@@ -2923,13 +2968,13 @@
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D5" s="2">
         <x:v>2</x:v>
@@ -2937,13 +2982,13 @@
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D6" s="2">
         <x:v>2</x:v>
@@ -2951,13 +2996,13 @@
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D7" s="2">
         <x:v>3</x:v>
@@ -2965,13 +3010,13 @@
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D8" s="2">
         <x:v>3</x:v>
@@ -2979,13 +3024,13 @@
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D9" s="2">
         <x:v>3</x:v>
@@ -2993,13 +3038,13 @@
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D10" s="2">
         <x:v>2</x:v>
@@ -3007,13 +3052,13 @@
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D11" s="2">
         <x:v>3</x:v>
@@ -3021,13 +3066,13 @@
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="2" t="s">
-        <x:v>201</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D12" s="2">
         <x:v>3</x:v>
@@ -3035,13 +3080,13 @@
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D13" s="2">
         <x:v>3</x:v>
@@ -3049,13 +3094,13 @@
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="2" t="s">
-        <x:v>206</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D14" s="2">
         <x:v>3</x:v>
@@ -3063,13 +3108,13 @@
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D15" s="2">
         <x:v>3</x:v>
@@ -3077,13 +3122,13 @@
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D16" s="2">
         <x:v>2</x:v>
@@ -3091,13 +3136,13 @@
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="2" t="s">
-        <x:v>188</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D17" s="2">
         <x:v>3</x:v>
@@ -3105,13 +3150,13 @@
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D18" s="2">
         <x:v>3</x:v>
@@ -3119,13 +3164,13 @@
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D19" s="2">
         <x:v>3</x:v>
@@ -3133,13 +3178,13 @@
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="2" t="s">
-        <x:v>185</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D20" s="2">
         <x:v>3</x:v>
@@ -3147,13 +3192,13 @@
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="2" t="s">
-        <x:v>200</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D21" s="2">
         <x:v>3</x:v>
@@ -3161,13 +3206,13 @@
     </x:row>
     <x:row r="22" spans="1:4">
       <x:c r="A22" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D22" s="2">
         <x:v>3</x:v>
@@ -3175,13 +3220,13 @@
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="A23" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>240</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D23" s="2">
         <x:v>1</x:v>
@@ -3189,13 +3234,13 @@
     </x:row>
     <x:row r="24" spans="1:4">
       <x:c r="A24" s="2" t="s">
-        <x:v>229</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>240</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D24" s="2">
         <x:v>1</x:v>
@@ -3203,55 +3248,55 @@
     </x:row>
     <x:row r="25" spans="1:4">
       <x:c r="A25" s="2" t="s">
-        <x:v>232</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
       <x:c r="A26" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
       <x:c r="A27" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="A28" s="2" t="s">
-        <x:v>231</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>241</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D28" s="2">
         <x:v>3</x:v>
@@ -3259,13 +3304,13 @@
     </x:row>
     <x:row r="29" spans="1:4">
       <x:c r="A29" s="2" t="s">
-        <x:v>237</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D29" s="2">
         <x:v>2</x:v>
@@ -3273,13 +3318,13 @@
     </x:row>
     <x:row r="30" spans="1:4">
       <x:c r="A30" s="2" t="s">
-        <x:v>234</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D30" s="2">
         <x:v>3</x:v>
@@ -3287,13 +3332,13 @@
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="2" t="s">
-        <x:v>235</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D31" s="2">
         <x:v>3</x:v>
@@ -3301,13 +3346,13 @@
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="A32" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D32" s="2">
         <x:v>3</x:v>
@@ -3315,13 +3360,13 @@
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>233</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D33" s="2">
         <x:v>1</x:v>
@@ -3329,13 +3374,13 @@
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="A34" s="2" t="s">
-        <x:v>175</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>187</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D34" s="2">
         <x:v>1</x:v>
@@ -3343,13 +3388,13 @@
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="A35" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>236</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D35" s="2">
         <x:v>2</x:v>
@@ -3357,13 +3402,13 @@
     </x:row>
     <x:row r="36" spans="1:4">
       <x:c r="A36" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>196</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D36" s="2">
         <x:v>2</x:v>
@@ -3371,13 +3416,13 @@
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="2" t="s">
-        <x:v>242</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D37" s="2">
         <x:v>1</x:v>
@@ -3385,13 +3430,13 @@
     </x:row>
     <x:row r="38" spans="1:4">
       <x:c r="A38" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D38" s="2">
         <x:v>1</x:v>
@@ -3399,13 +3444,13 @@
     </x:row>
     <x:row r="39" spans="1:4">
       <x:c r="A39" s="2" t="s">
-        <x:v>245</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>239</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D39" s="2">
         <x:v>3</x:v>
@@ -3413,13 +3458,13 @@
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D40" s="2">
         <x:v>1</x:v>
@@ -3427,13 +3472,13 @@
     </x:row>
     <x:row r="41" spans="1:4">
       <x:c r="A41" s="2" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B41" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B41" s="1" t="s">
-        <x:v>198</x:v>
-      </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D41" s="2">
         <x:v>2</x:v>
@@ -3441,13 +3486,13 @@
     </x:row>
     <x:row r="42" spans="1:4">
       <x:c r="A42" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B42" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>225</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D42" s="2">
         <x:v>2</x:v>
@@ -3455,20 +3500,20 @@
     </x:row>
     <x:row r="43" spans="1:4">
       <x:c r="A43" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B43" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>230</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D43" s="2">
         <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -3492,27 +3537,27 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>243</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D2" s="1">
         <x:v>2</x:v>
@@ -3520,13 +3565,13 @@
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D3" s="1">
         <x:v>1</x:v>
@@ -3534,13 +3579,13 @@
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D4" s="1">
         <x:v>2</x:v>
@@ -3548,13 +3593,13 @@
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D5" s="1">
         <x:v>2</x:v>
@@ -3562,13 +3607,13 @@
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D6" s="1">
         <x:v>2</x:v>
@@ -3576,13 +3621,13 @@
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D7" s="1">
         <x:v>3</x:v>
@@ -3590,13 +3635,13 @@
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D8" s="1">
         <x:v>3</x:v>
@@ -3604,13 +3649,13 @@
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D9" s="1">
         <x:v>3</x:v>
@@ -3618,13 +3663,13 @@
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D10" s="1">
         <x:v>2</x:v>
@@ -3632,13 +3677,13 @@
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D11" s="1">
         <x:v>3</x:v>
@@ -3646,13 +3691,13 @@
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D12" s="1">
         <x:v>3</x:v>
@@ -3660,13 +3705,13 @@
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D13" s="1">
         <x:v>3</x:v>
@@ -3674,13 +3719,13 @@
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D14" s="1">
         <x:v>3</x:v>
@@ -3688,13 +3733,13 @@
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D15" s="1">
         <x:v>3</x:v>
@@ -3702,13 +3747,13 @@
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D16" s="1">
         <x:v>2</x:v>
@@ -3716,13 +3761,13 @@
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D17" s="1">
         <x:v>3</x:v>
@@ -3730,13 +3775,13 @@
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
         <x:v>157</x:v>
-      </x:c>
-      <x:c r="C18" s="1" t="s">
-        <x:v>2</x:v>
       </x:c>
       <x:c r="D18" s="1">
         <x:v>3</x:v>
@@ -3744,13 +3789,13 @@
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D19" s="1">
         <x:v>3</x:v>
@@ -3758,13 +3803,13 @@
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D20" s="1">
         <x:v>3</x:v>
@@ -3772,13 +3817,13 @@
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D21" s="1">
         <x:v>3</x:v>
@@ -3786,13 +3831,13 @@
     </x:row>
     <x:row r="22" spans="1:4">
       <x:c r="A22" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D22" s="1">
         <x:v>3</x:v>
@@ -3800,18 +3845,18 @@
     </x:row>
     <x:row r="23" spans="1:1">
       <x:c r="A23" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
       <x:c r="A24" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D24" s="1">
         <x:v>1</x:v>
@@ -3819,37 +3864,37 @@
     </x:row>
     <x:row r="25" spans="1:1">
       <x:c r="A25" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:1">
       <x:c r="A26" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
       <x:c r="A27" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="A28" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D28" s="1">
         <x:v>3</x:v>
@@ -3857,13 +3902,13 @@
     </x:row>
     <x:row r="29" spans="1:4">
       <x:c r="A29" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D29" s="1">
         <x:v>2</x:v>
@@ -3871,18 +3916,18 @@
     </x:row>
     <x:row r="30" spans="1:1">
       <x:c r="A30" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D31" s="1">
         <x:v>3</x:v>
@@ -3890,13 +3935,13 @@
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="A32" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D32" s="1">
         <x:v>3</x:v>
@@ -3904,13 +3949,13 @@
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D33" s="1">
         <x:v>1</x:v>
@@ -3918,13 +3963,13 @@
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="A34" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B34" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C34" s="1" t="s">
         <x:v>175</x:v>
-      </x:c>
-      <x:c r="B34" s="1" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="C34" s="1" t="s">
-        <x:v>152</x:v>
       </x:c>
       <x:c r="D34" s="1">
         <x:v>1</x:v>
@@ -3932,13 +3977,13 @@
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="A35" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B35" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D35" s="1">
         <x:v>2</x:v>
@@ -3946,13 +3991,13 @@
     </x:row>
     <x:row r="36" spans="1:4">
       <x:c r="A36" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D36" s="1">
         <x:v>2</x:v>
@@ -3960,13 +4005,13 @@
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="1" t="s">
-        <x:v>242</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D37" s="1">
         <x:v>1</x:v>
@@ -3974,13 +4019,13 @@
     </x:row>
     <x:row r="38" spans="1:4">
       <x:c r="A38" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B38" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C38" s="1" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="B38" s="1" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="C38" s="1" t="s">
-        <x:v>182</x:v>
       </x:c>
       <x:c r="D38" s="1">
         <x:v>1</x:v>
@@ -3988,13 +4033,13 @@
     </x:row>
     <x:row r="39" spans="1:4">
       <x:c r="A39" s="1" t="s">
-        <x:v>245</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B39" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D39" s="1">
         <x:v>3</x:v>
@@ -4002,13 +4047,13 @@
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D40" s="1">
         <x:v>1</x:v>
@@ -4016,13 +4061,13 @@
     </x:row>
     <x:row r="41" spans="1:4">
       <x:c r="A41" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D41" s="1">
         <x:v>2</x:v>
@@ -4030,13 +4075,13 @@
     </x:row>
     <x:row r="42" spans="1:4">
       <x:c r="A42" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B42" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D42" s="1">
         <x:v>2</x:v>
@@ -4044,20 +4089,20 @@
     </x:row>
     <x:row r="43" spans="1:4">
       <x:c r="A43" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B43" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D43" s="1">
         <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>